--- a/Saved_Events.xlsx
+++ b/Saved_Events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>Year</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Wishlist Item 1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Wishlist Item 2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wishlist Item 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,14 +491,42 @@
           <t>March</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wedding</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Keurig</t>
         </is>
       </c>
     </row>
